--- a/DTProgramBug.xlsx
+++ b/DTProgramBug.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NickWork\tina-transform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155B1D2-F62C-4929-924F-FBB384810C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96835D92-9285-45E8-9712-0A180A0D1C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{238E0772-73DA-46E7-A579-05C7B16F19D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1 (6)" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (5)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId3"/>
+    <sheet name="_not_pk" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1 (5)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +154,18 @@
   </si>
   <si>
     <t>อา5.2</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
 </sst>
 </file>
@@ -505,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C1A73B-08CE-4413-933A-9490678E815E}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD65B4E-3E7D-4037-8C2C-34432A522C0F}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,7 +531,7 @@
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,31 +545,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -570,31 +574,22 @@
         <v>20000</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -608,31 +603,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -649,7 +635,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -657,47 +646,64 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1005,11 +1011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD65B4E-3E7D-4037-8C2C-34432A522C0F}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C1A73B-08CE-4413-933A-9490678E815E}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,7 +1024,7 @@
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,22 +1038,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1061,22 +1076,31 @@
         <v>20000</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1093,19 +1117,28 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1122,10 +1155,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1133,61 +1163,50 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1196,6 +1215,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AF370-3248-468A-8054-075FE962A308}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368A0203-B9C0-4324-A153-F258B86450FE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
